--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_Keyhandling.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_Keyhandling.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="118">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -293,15 +293,6 @@
   </si>
   <si>
     <t>KeyValue:66(Enter Key)</t>
-  </si>
-  <si>
-    <t>wait(3);
-PullConfigxml;
-ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
-ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\PB\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
-ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
-ChangeConfigxml(Configuration/DeviceKeys,FunctionKeysCapturable,&lt;FunctionKeysCapturable value="1"/&gt;);
-PushConfigxml;</t>
   </si>
   <si>
     <t>validate1
@@ -599,9 +590,6 @@
 validates;
 sendKeyEvents(z);
 validatet;</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
   <si>
     <t>wait(5);
@@ -2728,7 +2716,14 @@
 };</t>
   </si>
   <si>
-    <t>pass</t>
+    <t>wait(3);
+PullConfigxml;
+ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
+ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\PB\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
+ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="1"/&gt;);
+ChangeConfigxml(Configuration/Applications/Application,isWindowsKey,&lt;isWindowsKey value="0"/&gt;);
+ChangeConfigxml(Configuration/DeviceKeys,FunctionKeysCapturable,&lt;FunctionKeysCapturable value="1"/&gt;);
+PushConfigxml;</t>
   </si>
 </sst>
 </file>
@@ -3193,9 +3188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3241,7 +3234,7 @@
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="294" thickBot="1">
+    <row r="2" spans="1:11" ht="332.25" thickBot="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3252,7 +3245,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>11</v>
@@ -3261,13 +3254,11 @@
         <v>1</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="147" thickBot="1">
@@ -3279,7 +3270,7 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>12</v>
@@ -3294,9 +3285,7 @@
         <v>13</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="192" thickBot="1">
@@ -3308,24 +3297,22 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="203.25" thickBot="1">
@@ -3337,24 +3324,22 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="409.6" thickBot="1">
@@ -3366,24 +3351,22 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="409.6" thickBot="1">
@@ -3395,24 +3378,22 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="409.6" thickBot="1">
@@ -3424,24 +3405,22 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="409.6" thickBot="1">
@@ -3453,24 +3432,22 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="409.6" thickBot="1">
@@ -3482,24 +3459,22 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="409.6" thickBot="1">
@@ -3511,24 +3486,22 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="409.6" thickBot="1">
@@ -3540,24 +3513,22 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="248.25" thickBot="1">
@@ -3569,24 +3540,22 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="409.6" thickBot="1">
@@ -3598,24 +3567,22 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" ht="409.6" thickBot="1">
@@ -3627,24 +3594,22 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" ht="409.6" thickBot="1">
@@ -3656,24 +3621,22 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" ht="203.25" thickBot="1">
@@ -3685,24 +3648,22 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" ht="147" thickBot="1">
@@ -3714,7 +3675,7 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>15</v>
@@ -3729,9 +3690,7 @@
         <v>17</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="147" thickBot="1">
@@ -3743,7 +3702,7 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>20</v>
@@ -3758,9 +3717,7 @@
         <v>18</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="147" thickBot="1">
@@ -3772,7 +3729,7 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>21</v>
@@ -3787,9 +3744,7 @@
         <v>22</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" ht="409.5" customHeight="1" thickBot="1">
@@ -3801,7 +3756,7 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>28</v>
@@ -3810,15 +3765,13 @@
         <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" ht="409.5" customHeight="1" thickBot="1">
@@ -3830,7 +3783,7 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>29</v>
@@ -3839,15 +3792,13 @@
         <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11" ht="409.5" customHeight="1" thickBot="1">
@@ -3859,7 +3810,7 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>24</v>
@@ -3868,15 +3819,13 @@
         <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" ht="409.5" customHeight="1" thickBot="1">
@@ -3888,7 +3837,7 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>25</v>
@@ -3897,15 +3846,13 @@
         <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" ht="409.5" customHeight="1" thickBot="1">
@@ -3917,7 +3864,7 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>26</v>
@@ -3926,15 +3873,13 @@
         <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" ht="409.5" customHeight="1" thickBot="1">
@@ -3946,7 +3891,7 @@
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>27</v>
@@ -3955,15 +3900,13 @@
         <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" ht="409.5" customHeight="1" thickBot="1">
@@ -3975,7 +3918,7 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>30</v>
@@ -3984,15 +3927,13 @@
         <v>1</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:11" ht="409.5" customHeight="1" thickBot="1">
@@ -4004,7 +3945,7 @@
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>41</v>
@@ -4013,15 +3954,13 @@
         <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:11" ht="237" thickBot="1">
@@ -4033,7 +3972,7 @@
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>31</v>
@@ -4042,15 +3981,13 @@
         <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:11" ht="192" thickBot="1">
@@ -4062,7 +3999,7 @@
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>33</v>
@@ -4077,9 +4014,7 @@
         <v>35</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:11" ht="192" thickBot="1">
@@ -4091,7 +4026,7 @@
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>36</v>
@@ -4106,9 +4041,7 @@
         <v>38</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
     <row r="32" spans="1:11" ht="113.25" thickBot="1">
@@ -4120,7 +4053,7 @@
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>39</v>
@@ -4129,15 +4062,13 @@
         <v>1</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" ht="409.5" customHeight="1" thickBot="1">
@@ -4149,24 +4080,22 @@
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F33" s="1">
         <v>1</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" ht="409.5" customHeight="1" thickBot="1">
@@ -4178,24 +4107,22 @@
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" ht="409.5" customHeight="1" thickBot="1">
@@ -4207,24 +4134,22 @@
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F35" s="1">
         <v>1</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I35" s="2"/>
-      <c r="J35" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" ht="147" thickBot="1">
@@ -4236,24 +4161,22 @@
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E36" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F36" s="1">
-        <v>1</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="I36" s="2"/>
-      <c r="J36" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" ht="203.25" thickBot="1">
@@ -4265,24 +4188,22 @@
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E37" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F37" s="1">
-        <v>1</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="I37" s="2"/>
-      <c r="J37" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11" ht="203.25" thickBot="1">
@@ -4294,24 +4215,22 @@
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E38" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F38" s="1">
-        <v>1</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="I38" s="2"/>
-      <c r="J38" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="1:11" ht="248.25" thickBot="1">
@@ -4323,24 +4242,22 @@
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E39" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F39" s="1">
-        <v>1</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="I39" s="2"/>
-      <c r="J39" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
   </sheetData>
